--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 5779-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45110</v>
+        <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5779-2022</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44596</v>
+        <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44286</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45817</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>12.7</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45180</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45551</v>
+        <v>45148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45196</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>45235</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45300</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44831</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45937</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45222</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45365</v>
+        <v>45937</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45912</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45912</v>
+        <v>44824</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2989,13 +2989,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45180</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45912</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44862</v>
+        <v>45365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45999</v>
+        <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3267,7 +3262,7 @@
         <v>45126</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3322,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45566</v>
+        <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45148</v>
+        <v>45728</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45728</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44911</v>
+        <v>45854</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3512,13 +3507,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45854</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>8.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45033</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45866</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3689,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45833</v>
+        <v>45817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.2</v>
+        <v>12.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45299</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44343</v>
+        <v>45622</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4031,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45033</v>
+        <v>45300</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4088,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4125,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4144,8 +4134,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45148</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44824</v>
+        <v>45999</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44308</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4373,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45217</v>
+        <v>44343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4486,8 +4481,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45195</v>
+        <v>45056</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45148</v>
+        <v>44804</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12.9</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45233</v>
+        <v>45222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45306</v>
+        <v>45299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44804</v>
+        <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44993</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>44993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45642</v>
+        <v>45217</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45357</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>12.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45196</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45056</v>
+        <v>45566</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45384</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45566</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45300</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45622</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45357</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45798</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45300</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45854</v>
+        <v>45195</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45854</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45714.3750462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45110.45901620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>45235</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45300</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>45000.78096064815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45889.4053125</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45764.46326388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45674.44508101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45510.44241898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>45937</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45898.74201388889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45693.74108796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44824</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45180</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45912</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45126</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45728</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45947.46304398148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45854</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45854</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45033</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45629.44629629629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45104.46216435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>45642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45622</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45972.60525462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45300</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45993.64469907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45996.60071759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45996.59925925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>45999</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>45714.37358796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45056</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44804</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45512.35908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>45222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45243.37550925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44433.55268518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45217</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45695.48664351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45196</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45566</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44494.82990740741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45117.60016203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45127.5517824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45174.5153125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45208.81071759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45180.49457175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45357</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45174.51077546296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45415.58579861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45195</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45491.60534722222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45714.3750462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45110.45901620371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>45235</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45300</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>45000.78096064815</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45889.4053125</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45764.46326388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45674.44508101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45510.44241898148</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>45937</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45898.74201388889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45693.74108796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44824</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45180</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45912</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45126</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45728</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45947.46304398148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45854</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45854</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45033</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45629.44629629629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45104.46216435185</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>45642</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45622</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45972.60525462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45300</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>45993.64469907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45996.60071759259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45996.59925925926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>45999</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>45714.37358796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>44343</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>44911</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>45056</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44804</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45512.35908564815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>45222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>45566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45243.37550925926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>44433.55268518518</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>45217</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45695.48664351852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45196</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45566</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>44494.82990740741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45117.60016203704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>45127.5517824074</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45174.5153125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45208.81071759259</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45110</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45180.49457175926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45357</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45174.51077546296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45415.58579861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45195</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45491.60534722222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42963-2022</t>
+          <t>A 41896-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44833.41712962963</v>
+        <v>44426.35085648148</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1431,14 +1431,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 41896-2021</t>
+          <t>A 42963-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44426.35085648148</v>
+        <v>44833.41712962963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45196</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45551</v>
+        <v>45222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45365</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45306</v>
+        <v>45126</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,8 +1963,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2006,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45233</v>
+        <v>45566</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2026,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2063,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44831</v>
+        <v>44862</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2083,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45148</v>
+        <v>44911</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2134,8 +2139,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2182,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2202,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2239,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45798</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2259,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2296,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2316,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2353,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45235</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2373,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2410,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45300</v>
+        <v>45937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2430,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45299</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2487,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2581,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45854</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2601,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.8</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2638,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45854</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2658,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>8.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2695,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2715,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2752,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45937</v>
+        <v>44343</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2772,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2809,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45912</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2829,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2866,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2886,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2923,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44824</v>
+        <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2943,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2980,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45912</v>
+        <v>45817</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +3000,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>12.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3037,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45180</v>
+        <v>45033</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3094,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45912</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3114,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3151,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45365</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3171,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3208,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44862</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3228,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45126</v>
+        <v>45148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3274,13 +3284,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45148</v>
+        <v>45217</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45728</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45195</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45854</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3550,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45854</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3570,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45033</v>
+        <v>45110</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45180</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45817</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3741,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>12.7</v>
+        <v>5.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45384</v>
+        <v>45551</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45642</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45622</v>
+        <v>45728</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>6.4</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45235</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45300</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4134,13 +4139,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>44831</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45999</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>44824</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44343</v>
+        <v>44308</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44911</v>
+        <v>45148</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4481,13 +4481,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45056</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4543,8 +4538,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45866</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>12.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44804</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45833</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45999</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45222</v>
+        <v>45233</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45566</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45299</v>
+        <v>45306</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44308</v>
+        <v>44804</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45866</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45833</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5158,7 +5158,7 @@
         <v>44993</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45217</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>12.9</v>
+        <v>2.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45196</v>
+        <v>45642</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45566</v>
+        <v>45357</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45148</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45056</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>5.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45384</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45566</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45110</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45300</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45357</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45622</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45195</v>
+        <v>45798</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1374,14 +1374,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 41896-2021</t>
+          <t>A 42963-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44426.35085648148</v>
+        <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1431,14 +1431,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 42963-2022</t>
+          <t>A 41896-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44833.41712962963</v>
+        <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45196</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45222</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>0.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45365</v>
+        <v>45937</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45126</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,13 +1963,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.9</v>
+        <v>5.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2006,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45566</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2026,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2063,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44862</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2083,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2120,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44911</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,13 +2134,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2182,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2202,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2239,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45357</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2259,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2296,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45551</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2316,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2353,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2373,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2410,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45937</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2430,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2467,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45299</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2487,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2524,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45306</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2544,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2581,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45854</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2601,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2638,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45854</v>
+        <v>45195</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2658,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2695,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45233</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2715,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2752,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44343</v>
+        <v>44831</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2772,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2809,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45912</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2829,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2866,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45912</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2886,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2923,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45912</v>
+        <v>45148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2943,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2980,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45817</v>
+        <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3000,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>12.7</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3037,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45033</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3057,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3094,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3114,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3151,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45235</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3171,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3208,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3228,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3265,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45148</v>
+        <v>45798</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3285,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45217</v>
+        <v>45300</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3332,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3369,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3389,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3426,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45195</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3446,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3483,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>44824</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3503,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3550,14 +3540,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45180</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3570,7 +3560,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3597,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45110</v>
+        <v>45365</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3617,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3654,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45180</v>
+        <v>44862</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3684,7 +3674,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3721,14 +3711,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3740,8 +3730,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45551</v>
+        <v>45854</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45854</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>8.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45728</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45235</v>
+        <v>45817</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>12.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45033</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44831</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4192,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45148</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45384</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4306,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4343,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44824</v>
+        <v>45642</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4363,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4400,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44308</v>
+        <v>45622</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4420,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4457,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45148</v>
+        <v>45300</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4477,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4514,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4538,13 +4533,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4571,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4600,8 +4590,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>12.9</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4645,7 +4640,7 @@
         <v>45996.60071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4697,7 @@
         <v>45996.59925925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4752,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45999</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45233</v>
+        <v>45999</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>44343</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4881,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4918,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45306</v>
+        <v>44911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4942,8 +4937,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44804</v>
+        <v>45056</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>5.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45866</v>
+        <v>44804</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45833</v>
+        <v>45866</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44993</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45566</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45642</v>
+        <v>45299</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45357</v>
+        <v>45833</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>44308</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45056</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45384</v>
+        <v>44993</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45217</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45566</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>12.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45196</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45300</v>
+        <v>45566</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45622</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.4</v>
+        <v>2.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45798</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45300</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,14 +970,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 27906-2021</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44354</v>
+        <v>44509</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -989,13 +989,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1032,14 +1027,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 37809-2021</t>
+          <t>A 25557-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44402.56565972222</v>
+        <v>44343.3566087963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1047,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1096,7 +1091,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1146,14 +1141,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5320-2022</t>
+          <t>A 30978-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44594.66660879629</v>
+        <v>44768.49884259259</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1161,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1198,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 27906-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44509</v>
+        <v>44354</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1222,8 +1217,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25557-2021</t>
+          <t>A 37809-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44343.3566087963</v>
+        <v>44402.56565972222</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30978-2022</t>
+          <t>A 42963-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44768.49884259259</v>
+        <v>44833.41712962963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 42963-2022</t>
+          <t>A 5816-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44833.41712962963</v>
+        <v>44596</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 5816-2022</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44596</v>
+        <v>44286</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44286</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45235</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45937</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45110</v>
+        <v>45196</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>44831</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5.8</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>44862</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45126</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,8 +2077,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45566</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2140,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2177,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 5320-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>44594.66660879629</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2197,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>7.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2234,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45357</v>
+        <v>45222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2254,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2291,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45551</v>
+        <v>45148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2311,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45365</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2368,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2405,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45300</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2425,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2462,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>44911</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2476,8 +2481,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45306</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2581,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>44824</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2601,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2638,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45195</v>
+        <v>44308</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2658,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2695,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45233</v>
+        <v>45299</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2715,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2752,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44831</v>
+        <v>45148</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2772,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2809,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2829,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>12.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2866,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45912</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2886,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2923,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45148</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2943,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2980,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45912</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +3000,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3037,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45233</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3094,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>44343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3114,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3151,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45235</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3171,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3208,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45798</v>
+        <v>45033</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3285,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45300</v>
+        <v>45854</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3342,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45854</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.2</v>
+        <v>8.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3433,7 +3443,7 @@
         <v>45693.74108796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3483,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44824</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3503,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3550,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45180</v>
+        <v>45148</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3560,7 +3570,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3597,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45365</v>
+        <v>45217</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3617,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3654,14 +3664,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44862</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3674,7 +3684,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3711,14 +3721,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45126</v>
+        <v>45195</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3730,13 +3740,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45148</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45854</v>
+        <v>45817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>12.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45854</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3912,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45306</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45817</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>12.7</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45033</v>
+        <v>44804</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45728</v>
+        <v>45642</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45110</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45180</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45384</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4306,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>5.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4343,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45642</v>
+        <v>45357</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4363,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4400,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45622</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4420,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4457,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45300</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4477,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4514,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45551</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4534,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4571,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45056</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4590,13 +4595,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>44993</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45999</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44343</v>
+        <v>45384</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4918,14 +4918,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44911</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4937,13 +4937,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4975,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45056</v>
+        <v>45937</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +4995,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44804</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45866</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5109,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5146,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5166,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5203,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45222</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5223,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5260,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45566</v>
+        <v>45300</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5280,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5317,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45299</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5337,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5374,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45833</v>
+        <v>45912</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5394,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5431,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44308</v>
+        <v>45912</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5451,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5488,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45622</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5508,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5545,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5565,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5602,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44993</v>
+        <v>45728</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5622,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5659,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45217</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5679,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5716,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5736,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.9</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5773,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45196</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5793,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5830,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45566</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,8 +5849,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45148</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45833</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -970,14 +970,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 27906-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44509</v>
+        <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -989,8 +989,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1027,14 +1032,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25557-2021</t>
+          <t>A 37809-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44343.3566087963</v>
+        <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1047,7 +1052,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1091,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1141,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 30978-2022</t>
+          <t>A 5320-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44768.49884259259</v>
+        <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1161,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1198,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27906-2021</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44354</v>
+        <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1217,13 +1222,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 37809-2021</t>
+          <t>A 25557-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44402.56565972222</v>
+        <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 42963-2022</t>
+          <t>A 30978-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44833.41712962963</v>
+        <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1374,14 +1374,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 5816-2022</t>
+          <t>A 42963-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44596</v>
+        <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1488,14 +1488,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 5816-2022</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44286</v>
+        <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45235</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45196</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44831</v>
+        <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44862</v>
+        <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45126</v>
+        <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,13 +2077,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2120,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45566</v>
+        <v>45798</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2140,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2177,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 5320-2022</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44594.66660879629</v>
+        <v>45300</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2197,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>7.4</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2234,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45222</v>
+        <v>45148</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2254,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2291,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45148</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2311,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45365</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2368,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2405,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45300</v>
+        <v>45833</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2425,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2462,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44911</v>
+        <v>45235</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2481,13 +2476,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2524,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2544,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2581,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44824</v>
+        <v>46064</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2601,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2638,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44308</v>
+        <v>46064</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2658,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2695,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45299</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2715,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2752,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45148</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2772,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2809,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2829,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>12.9</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2866,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2886,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2923,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2943,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2980,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45937</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3000,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3037,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45233</v>
+        <v>44824</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3057,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3094,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44343</v>
+        <v>45180</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3114,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3151,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3171,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3208,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45854</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3228,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3265,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45033</v>
+        <v>45854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3285,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3322,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45854</v>
+        <v>45365</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3342,7 +3332,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3379,14 +3369,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45854</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3399,7 +3389,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3436,14 +3426,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45817</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3456,7 +3446,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>12.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3493,14 +3483,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>44862</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3513,7 +3503,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3550,14 +3540,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45148</v>
+        <v>45126</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3569,8 +3559,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3607,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45217</v>
+        <v>45148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3627,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3664,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45912</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3721,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45195</v>
+        <v>45912</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3741,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3778,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45033</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3798,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3835,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45817</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3855,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>12.7</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45384</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45306</v>
+        <v>45642</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45622</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44804</v>
+        <v>45300</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45642</v>
+        <v>45728</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45110</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4192,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45180</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4306,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4343,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45357</v>
+        <v>44343</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4363,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4400,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>44911</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4424,8 +4419,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45056</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45551</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4538,8 +4538,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45056</v>
+        <v>44804</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44993</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45384</v>
+        <v>45999</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4881,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4918,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45566</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4938,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4975,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45937</v>
+        <v>45299</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>44308</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5089,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5109,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45566</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5166,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5203,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45866</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5223,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5260,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45300</v>
+        <v>44993</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5280,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5317,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45217</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5337,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5374,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45912</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5394,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>12.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5431,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45912</v>
+        <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5451,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5488,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45622</v>
+        <v>45566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5508,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5545,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5565,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5602,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45728</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5622,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5659,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5679,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5716,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45798</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5736,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5773,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5793,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5830,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5849,13 +5854,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45999</v>
+        <v>45357</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45866</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6117,17 +6117,17 @@
       </c>
       <c r="R96" s="2" t="inlineStr"/>
     </row>
-    <row r="97">
+    <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45833</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6173,6 +6173,120 @@
         <v>0</v>
       </c>
       <c r="R97" s="2" t="inlineStr"/>
+    </row>
+    <row r="98" ht="15" customHeight="1">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>A 46733-2023</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>A 30407-2024</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>45491.60534722222</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45798</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45300</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45148</v>
+        <v>45798</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45300</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45833</v>
+        <v>45937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45235</v>
+        <v>45148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46064</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>46064</v>
+        <v>45235</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>3.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>45674.44508101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45912</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45937</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44824</v>
+        <v>45866</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45180</v>
+        <v>44824</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45180</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.4</v>
+        <v>5.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>45854</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3312,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45365</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45817</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>12.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3426,14 +3426,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45817</v>
+        <v>45728</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12.7</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3483,14 +3483,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44862</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45126</v>
+        <v>45365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3559,13 +3559,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3597,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45148</v>
+        <v>44862</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3617,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3654,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45912</v>
+        <v>45126</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3678,8 +3673,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45912</v>
+        <v>45148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45033</v>
+        <v>45833</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45384</v>
+        <v>45033</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45642</v>
+        <v>46064</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45622</v>
+        <v>46064</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45300</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45728</v>
+        <v>45384</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45642</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45622</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4305,8 +4305,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4343,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44343</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4363,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4400,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44911</v>
+        <v>45300</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4419,13 +4424,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45056</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45999</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4538,13 +4538,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44804</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>44343</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>44911</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4714,8 +4709,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45056</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45222</v>
+        <v>44804</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45999</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45566</v>
+        <v>45222</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45299</v>
+        <v>45566</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44308</v>
+        <v>45299</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>44308</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45866</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>44993</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45217</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45695.48664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44494.82990740741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45117.60016203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45127.5517824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45174.5153125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45208.81071759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45180.49457175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45357</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45174.51077546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45415.58579861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45195</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45491.60534722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45551</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45551</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45306</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45233</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44831</v>
+        <v>45306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45889.4053125</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45764.46326388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45798</v>
+        <v>45233</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45300</v>
+        <v>44831</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>45510.44241898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45148</v>
+        <v>45798</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45300</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45235</v>
+        <v>45148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45235</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45912</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
         <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45866</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44824</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45180</v>
+        <v>44824</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5.6</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45854</v>
+        <v>45180</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45854</v>
+        <v>45728</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45817</v>
+        <v>45854</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>12.7</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3426,14 +3426,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45728</v>
+        <v>45854</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3483,14 +3483,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45365</v>
+        <v>45817</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>12.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3597,14 +3597,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44862</v>
+        <v>45365</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45126</v>
+        <v>44862</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3673,13 +3673,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3711,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45148</v>
+        <v>45126</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3735,8 +3730,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45833</v>
+        <v>45148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,8 +3849,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3894,7 +3899,7 @@
         <v>45033</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>46064</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>46064</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45384</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45384</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45642</v>
+        <v>45999</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45622</v>
+        <v>45642</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45622</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4305,13 +4310,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45300</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45300</v>
+        <v>45866</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45833</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45999</v>
+        <v>46064</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>46064</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44343</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44911</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4709,13 +4709,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45056</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44804</v>
+        <v>44343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>44911</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4885,8 +4880,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45222</v>
+        <v>45056</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45566</v>
+        <v>44804</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45299</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44308</v>
+        <v>45222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45566</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45299</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44993</v>
+        <v>44308</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45217</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>12.9</v>
+        <v>3.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45196</v>
+        <v>44993</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45566</v>
+        <v>45217</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45148</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>12.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45196</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45566</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45110</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45357</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45110</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,116 +6177,230 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
+          <t>A 9006-2024</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="2" t="inlineStr"/>
+    </row>
+    <row r="99" ht="15" customHeight="1">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>A 41253-2023</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>45174.51077546296</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="2" t="inlineStr"/>
+    </row>
+    <row r="100" ht="15" customHeight="1">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>A 17517-2024</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>45415.58579861111</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>A 46733-2023</t>
         </is>
       </c>
-      <c r="B98" s="1" t="n">
+      <c r="B101" s="1" t="n">
         <v>45195</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>BROMÖLLA</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
+      <c r="C101" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>0.8</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" s="2" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>A 30407-2024</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>45491.60534722222</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>BROMÖLLA</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>1</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5320-2022</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44594.66660879629</v>
+        <v>44509</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 5320-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44509</v>
+        <v>44594.66660879629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45196</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45622</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45551</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.4</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45222</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45306</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45365</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45937</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45233</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44831</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45728</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45937</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>45798</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45300</v>
+        <v>45912</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45912</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45148</v>
+        <v>45300</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>44862</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45235</v>
+        <v>45126</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2818,8 +2818,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2861,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45566</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2881,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2918,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45912</v>
+        <v>44911</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2932,8 +2937,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2980,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45912</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +3000,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3037,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45854</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3094,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45854</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3114,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.9</v>
+        <v>8.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3151,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44824</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3158,6 +3168,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>BROMÖLLA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -3198,14 +3213,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45180</v>
+        <v>45299</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3233,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3270,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45728</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3290,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3327,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45817</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3332,7 +3347,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.1</v>
+        <v>12.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3384,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45854</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3404,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3426,14 +3441,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45854</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3446,7 +3461,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8.4</v>
+        <v>0.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3483,14 +3498,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3503,7 +3518,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3555,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45817</v>
+        <v>44343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3560,7 +3575,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12.7</v>
+        <v>0.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3597,14 +3612,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45365</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3617,7 +3632,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3654,14 +3669,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44862</v>
+        <v>45033</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3674,7 +3689,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3711,14 +3726,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45126</v>
+        <v>45999</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3730,13 +3745,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3783,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45148</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3803,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3840,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3849,13 +3859,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3892,14 +3897,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45033</v>
+        <v>45148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3912,7 +3917,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3954,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45217</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3974,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4011,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4031,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4068,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45384</v>
+        <v>45195</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4088,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4125,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4177,14 +4182,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45999</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4202,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4239,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45642</v>
+        <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4259,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4296,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45622</v>
+        <v>45180</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4316,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4353,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45300</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4373,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45866</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45833</v>
+        <v>45551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46064</v>
+        <v>45866</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>46064</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45235</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9508-2026</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46071.58304398148</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9509-2026</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>46071.58337962963</v>
+        <v>44831</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44343</v>
+        <v>45833</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44911</v>
+        <v>46064</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4880,13 +4885,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45056</v>
+        <v>46064</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.2</v>
+        <v>2.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44804</v>
+        <v>45148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45222</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45566</v>
+        <v>44824</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45299</v>
+        <v>44308</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44308</v>
+        <v>45148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>12.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45233</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44993</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45217</v>
+        <v>45306</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>44804</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>12.9</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45196</v>
+        <v>44993</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45566</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45148</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45642</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45357</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5899,7 +5899,7 @@
         <v>45127.5517824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45056</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45110</v>
+        <v>45384</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45357</v>
+        <v>45566</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45300</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45195</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 5320-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44509</v>
+        <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 5320-2022</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44594.66660879629</v>
+        <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45196</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45622</v>
+        <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45222</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45365</v>
+        <v>45148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45937</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45235</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45728</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>0.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45798</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45912</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45912</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45300</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44862</v>
+        <v>45937</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45126</v>
+        <v>45180</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2818,13 +2818,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2861,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45566</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2881,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2918,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44911</v>
+        <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2937,13 +2932,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2980,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3000,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3044,7 +3034,7 @@
         <v>45854</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3101,7 +3091,7 @@
         <v>45854</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3151,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3170,13 +3160,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3213,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45299</v>
+        <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3233,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3270,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45126</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3289,8 +3274,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3327,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45817</v>
+        <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3347,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>12.7</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3391,7 +3381,7 @@
         <v>45629.44629629629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3441,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45817</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3461,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.2</v>
+        <v>12.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3498,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45033</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3518,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3555,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44343</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3575,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3612,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45384</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3632,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3669,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45033</v>
+        <v>45728</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3689,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3726,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45999</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3746,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3783,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3803,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3840,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45622</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3860,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>6.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3897,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45148</v>
+        <v>45300</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3917,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3954,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45217</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3974,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4011,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4030,8 +4020,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4068,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45195</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4125,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4145,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4182,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4202,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4239,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45110</v>
+        <v>45999</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4259,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4296,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45180</v>
+        <v>44343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4316,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4353,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>44911</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4372,8 +4367,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45056</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4467,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45551</v>
+        <v>45866</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4524,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45866</v>
+        <v>44804</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45235</v>
+        <v>45222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44831</v>
+        <v>45566</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45833</v>
+        <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>46064</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4923,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46064</v>
+        <v>45299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45148</v>
+        <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9509-2026</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46071.58337962963</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5094,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9508-2026</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>46071.58304398148</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44824</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44308</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45148</v>
+        <v>44993</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45217</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>12.9</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45233</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>12.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45306</v>
+        <v>45566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44804</v>
+        <v>45148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44993</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45642</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45357</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45056</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.2</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45357</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45384</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45566</v>
+        <v>45195</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45300</v>
+        <v>45798</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45300</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45110.45901620371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45714.3750462963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45235</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>45000.78096064815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45674.44508101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>45889.4053125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45764.46326388889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45693.74108796296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45510.44241898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45937</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45180</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45898.74201388889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45854</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45854</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45126</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45629.44629629629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45817</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45033</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45104.46216435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45384</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45728</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45947.46304398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45622</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>45300</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45972.60525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45993.64469907407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45996.60071759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45714.37358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45996.59925925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45999</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44911</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45056</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45866</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44804</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45512.35908564815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45566</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>46064</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>46071.58304398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45243.37550925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44433.55268518518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>46071.58337962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44993</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45217</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45695.48664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44494.82990740741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45117.60016203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45127.5517824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45174.5153125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45208.81071759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45180.49457175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45357</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45174.51077546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45415.58579861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45195</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45491.60534722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45798</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45300</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
         <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>45551</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>45110.44355324074</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>45110.47505787037</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>45306</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>45233</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44831</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>45148</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45110.45901620371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>45714.3750462963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45235</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>45000.78096064815</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45674.44508101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>45889.4053125</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>45764.46326388889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>45693.74108796296</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>45510.44241898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>45937</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44824</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>45180</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>45898.74201388889</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>45854</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>45854</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>45365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44862</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>45126</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3381,7 +3381,7 @@
         <v>45629.44629629629</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>45817</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45033</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
         <v>45104.46216435185</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45384</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>45728</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>45947.46304398148</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>45642</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>45622</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>45300</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45972.60525462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45993.64469907407</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4070,7 +4070,7 @@
         <v>45996.60071759259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
         <v>45714.37358796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>45996.59925925926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45999</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>44343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4355,7 +4355,7 @@
         <v>44911</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>45056</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>45866</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44804</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>45512.35908564815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>45222</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4702,7 +4702,7 @@
         <v>45833</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45566</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>46064</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>46064</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>45299</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>46071.58304398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5101,7 +5101,7 @@
         <v>45243.37550925926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>44433.55268518518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>46071.58337962963</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>44993</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>45217</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>45695.48664351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>45196</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>45566</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>45148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>44494.82990740741</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>45117.60016203704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>45127.5517824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>45174.5153125</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>45208.81071759259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>45110</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>45180.49457175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>45357</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45174.51077546296</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>45415.58579861111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>45195</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>45491.60534722222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>45798</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>45300</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 30978-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44509</v>
+        <v>44768.49884259259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25557-2021</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44343.3566087963</v>
+        <v>44509</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30978-2022</t>
+          <t>A 25557-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44768.49884259259</v>
+        <v>44343.3566087963</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 5779-2022</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44596</v>
+        <v>44286</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 5779-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44286</v>
+        <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45196</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45551</v>
+        <v>45222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>44343</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45306</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45233</v>
+        <v>44911</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,8 +2020,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2063,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44831</v>
+        <v>45033</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2083,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45148</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2140,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2177,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45365</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2197,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2234,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45110</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2254,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2291,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45235</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2311,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2368,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2405,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2425,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2462,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45217</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2482,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2519,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2539,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2576,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45180</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2596,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2633,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45195</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2653,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2690,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45937</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2710,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2747,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44824</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2767,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2804,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45180</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2824,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.6</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2861,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2881,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2918,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45912</v>
+        <v>45551</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2938,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2975,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45912</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2995,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3032,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45854</v>
+        <v>45235</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3052,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3089,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45854</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3109,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3146,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45365</v>
+        <v>45299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3166,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3203,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44862</v>
+        <v>44831</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3223,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3260,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45126</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3274,13 +3279,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3317,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45148</v>
+        <v>44824</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>44308</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45817</v>
+        <v>45306</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12.7</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45033</v>
+        <v>45148</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>44804</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45384</v>
+        <v>45148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45728</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.1</v>
+        <v>12.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>44862</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45642</v>
+        <v>45233</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45622</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45300</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4020,13 +4020,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45937</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45126</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4139,8 +4134,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45566</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45999</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44343</v>
+        <v>44993</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44911</v>
+        <v>45912</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4367,13 +4367,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4410,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45056</v>
+        <v>45912</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4430,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4467,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45866</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4487,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4524,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44804</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4544,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4581,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45642</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4601,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4638,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45222</v>
+        <v>45357</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4658,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4695,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45833</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4715,7 +4710,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45566</v>
+        <v>45056</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>46064</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46064</v>
+        <v>45728</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4881,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4918,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45299</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4943,7 +4938,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4980,14 +4975,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44308</v>
+        <v>45384</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +4995,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9508-2026</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46071.58304398148</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45566</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5109,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5146,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5166,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5203,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 9509-2026</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46071.58337962963</v>
+        <v>45300</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5223,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5260,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44993</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5280,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5317,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45217</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5337,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5374,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45622</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5394,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>12.9</v>
+        <v>6.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5431,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45196</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5451,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5488,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45566</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5512,8 +5507,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45148</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45999</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45798</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45300</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>45866</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45110</v>
+        <v>45833</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>46064</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45357</v>
+        <v>46064</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45195</v>
+        <v>45854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45854</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>8.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45798</v>
+        <v>45817</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>12.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45300</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30978-2022</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44768.49884259259</v>
+        <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 25557-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44509</v>
+        <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 25557-2021</t>
+          <t>A 30978-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44343.3566087963</v>
+        <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 5779-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44286</v>
+        <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5779-2022</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44596</v>
+        <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45196</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45222</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45195</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44343</v>
+        <v>45551</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44911</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,13 +2020,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2063,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45033</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2083,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2120,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45306</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2140,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2177,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45365</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2197,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2234,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45110</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2254,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2291,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45233</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2311,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2348,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2368,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2405,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45148</v>
+        <v>45937</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2425,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2462,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45217</v>
+        <v>44831</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2482,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2519,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2539,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2576,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45180</v>
+        <v>45148</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2596,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2633,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45195</v>
+        <v>45798</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2653,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2690,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2710,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2747,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45300</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2767,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2804,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2824,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2861,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45235</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2881,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2918,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45551</v>
+        <v>45912</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2938,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2975,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45912</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2995,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3032,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45235</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3052,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3089,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3109,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3146,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45299</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3166,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3203,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3223,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3260,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45180</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3280,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>5.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3317,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44824</v>
+        <v>45728</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3337,7 +3332,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3369,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44308</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3389,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3426,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45306</v>
+        <v>45854</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3446,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3483,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45148</v>
+        <v>45854</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3503,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.4</v>
+        <v>8.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3540,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44804</v>
+        <v>45365</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3560,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3597,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45148</v>
+        <v>44862</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3617,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3659,14 +3654,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3679,7 +3674,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>12.9</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3716,14 +3711,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44862</v>
+        <v>45817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3736,7 +3731,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.6</v>
+        <v>12.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3773,14 +3768,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45233</v>
+        <v>45126</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3792,8 +3787,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.8</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45033</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3944,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4001,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45384</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4058,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45937</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4115,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45126</v>
+        <v>45642</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4134,13 +4134,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4172,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45566</v>
+        <v>45622</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4192,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4229,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45300</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4249,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4286,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44993</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4310,8 +4305,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45912</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45912</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45999</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45642</v>
+        <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45357</v>
+        <v>44343</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>44911</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4709,8 +4709,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4754,7 +4759,7 @@
         <v>45056</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4804,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>44804</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45728</v>
+        <v>46064</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4881,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4918,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>46064</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4938,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4975,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45384</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5052,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45566</v>
+        <v>45222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5109,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5166,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5203,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45300</v>
+        <v>45566</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5223,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5260,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45299</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5280,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5317,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>44308</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5337,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5374,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45622</v>
+        <v>45833</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5394,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5431,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5451,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5488,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5507,13 +5512,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>44993</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45217</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45999</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.8</v>
+        <v>12.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45798</v>
+        <v>45196</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45300</v>
+        <v>45566</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45866</v>
+        <v>45148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45833</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46064</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46064</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9509-2026</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46071.58337962963</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9508-2026</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46071.58304398148</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45854</v>
+        <v>45110</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45854</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45817</v>
+        <v>45357</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>12.7</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,14 +1032,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 37809-2021</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44402.56565972222</v>
+        <v>44509</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64621-2021</t>
+          <t>A 37809-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44511.82252314815</v>
+        <v>44402.56565972222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5320-2022</t>
+          <t>A 25557-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44594.66660879629</v>
+        <v>44343.3566087963</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 5320-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44509</v>
+        <v>44594.66660879629</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 25557-2021</t>
+          <t>A 30978-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44343.3566087963</v>
+        <v>44768.49884259259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 30978-2022</t>
+          <t>A 64621-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44768.49884259259</v>
+        <v>44511.82252314815</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 5779-2022</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44596</v>
+        <v>44286</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 5779-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44286</v>
+        <v>44596</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>45196</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45195</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>45551</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45222</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>6.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>45642</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2058,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>45299</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2115,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45306</v>
+        <v>45365</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2172,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45357</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2229,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2286,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45233</v>
+        <v>45056</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>5.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2343,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2400,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45937</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44831</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2514,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>44343</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2571,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45148</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45798</v>
+        <v>45033</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2685,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2742,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45300</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2799,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45235</v>
+        <v>45148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45912</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45912</v>
+        <v>45217</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3027,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>44862</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45195</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44824</v>
+        <v>45566</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3255,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 43276-2023</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45180</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3312,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45728</v>
+        <v>45126</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3331,8 +3331,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3369,14 +3374,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45566</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3389,7 +3394,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3426,14 +3431,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45854</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3446,7 +3451,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3483,14 +3488,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45854</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3503,7 +3508,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3540,14 +3545,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45365</v>
+        <v>45300</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3560,7 +3565,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3597,14 +3602,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44862</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3617,7 +3622,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3654,14 +3659,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 30075-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3674,7 +3679,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3711,14 +3716,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 43276-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45817</v>
+        <v>45180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3731,7 +3736,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>12.7</v>
+        <v>5.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3768,14 +3773,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45126</v>
+        <v>45622</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3787,13 +3792,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3830,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45148</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>5.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3887,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45033</v>
+        <v>44911</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,8 +3906,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3944,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3964,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4001,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45384</v>
+        <v>44824</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4021,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4058,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>44308</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4078,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4115,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45642</v>
+        <v>45551</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4135,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4172,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45622</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4192,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4229,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45300</v>
+        <v>45148</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4249,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4286,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45235</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4305,13 +4310,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45999</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>12.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4576,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45866</v>
+        <v>44831</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4633,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44343</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4690,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44911</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4709,13 +4709,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4752,14 +4747,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45056</v>
+        <v>45937</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4772,7 +4767,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4809,14 +4804,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44804</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4829,7 +4824,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4866,14 +4861,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>46064</v>
+        <v>45148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4886,7 +4881,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4923,14 +4918,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46064</v>
+        <v>45798</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4980,14 +4975,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45912</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5000,7 +4995,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5037,14 +5032,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9508-2026</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>46071.58304398148</v>
+        <v>45912</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5057,7 +5052,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5094,14 +5089,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45222</v>
+        <v>45233</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5114,7 +5109,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>6.4</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5151,14 +5146,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 9509-2026</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46071.58337962963</v>
+        <v>45300</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5171,7 +5166,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5208,14 +5203,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45566</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5228,7 +5223,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5265,14 +5260,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45299</v>
+        <v>45306</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5285,7 +5280,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5322,14 +5317,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44308</v>
+        <v>45728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5342,7 +5337,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5379,14 +5374,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45833</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5399,7 +5394,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5436,14 +5431,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>44804</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5456,7 +5451,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5493,14 +5488,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5513,7 +5508,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5550,14 +5545,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44993</v>
+        <v>45854</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5570,7 +5565,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5607,14 +5602,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45217</v>
+        <v>45854</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5627,7 +5622,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5664,14 +5659,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45817</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5684,7 +5679,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5721,14 +5716,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45196</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5741,7 +5736,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5778,14 +5773,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45566</v>
+        <v>44993</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5798,7 +5793,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5835,14 +5830,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45148</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5854,8 +5849,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45999</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>45866</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>46064</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 30075-2023</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45110</v>
+        <v>46064</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45357</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45833</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>

--- a/Översikt BROMÖLLA.xlsx
+++ b/Översikt BROMÖLLA.xlsx
@@ -575,7 +575,7 @@
         <v>45561</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         <v>44967</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>44860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45414.69196759259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>44389</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>44354</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1032,14 +1032,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 63681-2021</t>
+          <t>A 37809-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44509</v>
+        <v>44402.56565972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 37809-2021</t>
+          <t>A 64621-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44402.56565972222</v>
+        <v>44511.82252314815</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25557-2021</t>
+          <t>A 5320-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44343.3566087963</v>
+        <v>44594.66660879629</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1203,14 +1203,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 5320-2022</t>
+          <t>A 63681-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44594.66660879629</v>
+        <v>44509</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1260,14 +1260,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 30978-2022</t>
+          <t>A 25557-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44768.49884259259</v>
+        <v>44343.3566087963</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1317,14 +1317,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64621-2021</t>
+          <t>A 30978-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44511.82252314815</v>
+        <v>44768.49884259259</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>44833.41712962963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>44426.35085648148</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>44596</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1545,14 +1545,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 15784-2021</t>
+          <t>A 5779-2022</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44286</v>
+        <v>44596</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1602,14 +1602,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 5779-2022</t>
+          <t>A 15784-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44596</v>
+        <v>44286</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1659,14 +1659,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 30112-2023</t>
+          <t>A 43647-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45110.47505787037</v>
+        <v>44433.55268518518</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1716,14 +1716,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 43647-2021</t>
+          <t>A 47315-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44433.55268518518</v>
+        <v>45196</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1773,14 +1773,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 47315-2023</t>
+          <t>A 52972-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45196</v>
+        <v>45222</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1830,14 +1830,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 12721-2023</t>
+          <t>A 10275-2024</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45000.78096064815</v>
+        <v>45365</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1887,14 +1887,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59949-2021</t>
+          <t>A 31649-2023</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44494.82990740741</v>
+        <v>45117.60016203704</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1944,14 +1944,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52972-2023</t>
+          <t>A 49831-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45222</v>
+        <v>44862</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2001,14 +2001,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 60213-2024</t>
+          <t>A 34216-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45642</v>
+        <v>45126</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,8 +2020,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2058,14 +2063,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 576-2024</t>
+          <t>A 745-2024</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2078,7 +2083,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2115,14 +2120,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 10275-2024</t>
+          <t>A 42912-2024</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>45365</v>
+        <v>45566</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2135,7 +2140,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2172,14 +2177,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9006-2024</t>
+          <t>A 18908-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45357</v>
+        <v>45764.46326388889</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2192,7 +2197,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2229,14 +2234,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 33255-2023</t>
+          <t>A 39284-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45127.5517824074</v>
+        <v>45889.4053125</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2249,7 +2254,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2286,14 +2291,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 20426-2023</t>
+          <t>A 31944-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45056</v>
+        <v>45510.44241898148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2306,7 +2311,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2343,14 +2348,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 17517-2024</t>
+          <t>A 61701-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45415.58579861111</v>
+        <v>44911</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2362,8 +2367,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2400,14 +2410,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 31649-2023</t>
+          <t>A 30112-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45117.60016203704</v>
+        <v>45110.47505787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2420,7 +2430,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2457,14 +2467,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 2453-2025</t>
+          <t>A 48974-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45674.44508101852</v>
+        <v>45937</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2477,7 +2487,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2514,14 +2524,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 25563-2021</t>
+          <t>A 41309-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44343</v>
+        <v>45898.74201388889</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2534,7 +2544,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2571,14 +2581,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2448-2025</t>
+          <t>A 576-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45674.43166666666</v>
+        <v>45299</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2591,7 +2601,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2628,14 +2638,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17253-2023</t>
+          <t>A 43882-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45033</v>
+        <v>45912</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2648,7 +2658,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2685,14 +2695,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12685-2024</t>
+          <t>A 43881-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45384</v>
+        <v>45912</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2705,7 +2715,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2742,14 +2752,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 5659-2025</t>
+          <t>A 2453-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45693.74108796296</v>
+        <v>45674.44508101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2762,7 +2772,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2799,14 +2809,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 41253-2023</t>
+          <t>A 35392-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45174.51077546296</v>
+        <v>45854</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2819,7 +2829,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2856,14 +2866,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 35804-2023</t>
+          <t>A 35397-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45148</v>
+        <v>45854</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2876,7 +2886,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>8.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2913,14 +2923,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 48738-2023</t>
+          <t>A 25563-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45208.81071759259</v>
+        <v>44343</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2970,14 +2980,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 52307-2023</t>
+          <t>A 2448-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45217</v>
+        <v>45674.43166666666</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2990,7 +3000,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3027,14 +3037,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30089-2023</t>
+          <t>A 17253-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45110.44355324074</v>
+        <v>45033</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3047,7 +3057,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3084,14 +3094,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 49831-2022</t>
+          <t>A 5659-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44862</v>
+        <v>45693.74108796296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3104,7 +3114,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3141,14 +3151,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46733-2023</t>
+          <t>A 41253-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45195</v>
+        <v>45174.51077546296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3161,7 +3171,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3198,14 +3208,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 42909-2024</t>
+          <t>A 27965-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45566</v>
+        <v>45817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3218,7 +3228,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>12.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3255,14 +3265,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 56360-2023</t>
+          <t>A 57181-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45243.37550925926</v>
+        <v>45629.44629629629</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3275,7 +3285,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3312,14 +3322,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 34216-2023</t>
+          <t>A 35804-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45126</v>
+        <v>45148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3331,13 +3341,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3374,14 +3379,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42912-2024</t>
+          <t>A 52307-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45566</v>
+        <v>45217</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3394,7 +3399,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3431,14 +3436,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 9166-2025</t>
+          <t>A 30089-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45714.37358796296</v>
+        <v>45110.44355324074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3451,7 +3456,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3488,14 +3493,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 28870-2023</t>
+          <t>A 46733-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45104.46216435185</v>
+        <v>45195</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3508,7 +3513,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3545,14 +3550,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 814-2024</t>
+          <t>A 56360-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45300</v>
+        <v>45243.37550925926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3565,7 +3570,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3602,14 +3607,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32272-2024</t>
+          <t>A 9166-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45512.35908564815</v>
+        <v>45714.37358796296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3622,7 +3627,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3666,7 +3671,7 @@
         <v>45110</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3723,7 +3728,7 @@
         <v>45180</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3773,14 +3778,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 55901-2024</t>
+          <t>A 21980-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45622</v>
+        <v>45068.67945601852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3793,7 +3798,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3830,14 +3835,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21980-2023</t>
+          <t>A 9167-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45068.67945601852</v>
+        <v>45714.3750462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3850,7 +3855,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>5.8</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3887,14 +3892,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 61701-2022</t>
+          <t>A 39455-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44911</v>
+        <v>45551</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3906,13 +3911,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3949,14 +3949,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 9167-2025</t>
+          <t>A 11861-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45714.3750462963</v>
+        <v>45728</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4006,14 +4006,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 40719-2022</t>
+          <t>A 42333-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44824</v>
+        <v>45180.49457175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4063,14 +4063,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 19066-2021</t>
+          <t>A 51078-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44308</v>
+        <v>45947.46304398148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4120,14 +4120,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 39455-2024</t>
+          <t>A 54689-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45551</v>
+        <v>45235</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42333-2023</t>
+          <t>A 30101-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45180.49457175926</v>
+        <v>45110.45901620371</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4234,14 +4234,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35798-2023</t>
+          <t>A 42748-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45148</v>
+        <v>44831</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4291,14 +4291,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 54689-2023</t>
+          <t>A 35802-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45235</v>
+        <v>45148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4348,14 +4348,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18908-2025</t>
+          <t>A 55762-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45764.46326388889</v>
+        <v>45972.60525462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4405,14 +4405,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 30101-2023</t>
+          <t>A 40719-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45110.45901620371</v>
+        <v>44824</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4462,14 +4462,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 39284-2025</t>
+          <t>A 19066-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45889.4053125</v>
+        <v>44308</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4519,14 +4519,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 5961-2025</t>
+          <t>A 60055-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45695.48664351852</v>
+        <v>45993.64469907407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4538,8 +4538,13 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>12.9</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4576,14 +4581,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42748-2022</t>
+          <t>A 35798-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44831</v>
+        <v>45148</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4596,7 +4601,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4633,14 +4638,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 31944-2024</t>
+          <t>A 60698-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45510.44241898148</v>
+        <v>45996.60071759259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4653,7 +4658,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4690,14 +4695,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30407-2024</t>
+          <t>A 60696-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45491.60534722222</v>
+        <v>45996.59925925926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4710,7 +4715,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4747,14 +4752,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 48974-2025</t>
+          <t>A 5961-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45937</v>
+        <v>45695.48664351852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.1</v>
+        <v>12.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4804,14 +4809,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41309-2025</t>
+          <t>A 60961-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45898.74201388889</v>
+        <v>45999</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4824,7 +4829,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4861,14 +4866,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35802-2023</t>
+          <t>A 56056-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45148</v>
+        <v>45233</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4881,7 +4886,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4918,14 +4923,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 24688-2025</t>
+          <t>A 41254-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45798</v>
+        <v>45174.5153125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4938,7 +4943,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -4975,14 +4980,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43882-2025</t>
+          <t>A 36086-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45912</v>
+        <v>45866</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5032,14 +5037,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43881-2025</t>
+          <t>A 1566-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45912</v>
+        <v>45306</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5052,7 +5057,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5089,14 +5094,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56056-2023</t>
+          <t>A 36421-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45233</v>
+        <v>44804</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5109,7 +5114,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5146,14 +5151,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 745-2024</t>
+          <t>A 8366-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45300</v>
+        <v>46064</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5166,7 +5171,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5203,14 +5208,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41254-2023</t>
+          <t>A 8362-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45174.5153125</v>
+        <v>46064</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5223,7 +5228,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5260,14 +5265,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1566-2024</t>
+          <t>A 9509-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45306</v>
+        <v>46071.58337962963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5280,7 +5285,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5317,14 +5322,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11861-2025</t>
+          <t>A 9508-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45728</v>
+        <v>46071.58304398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5337,7 +5342,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5374,14 +5379,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 51078-2025</t>
+          <t>A 31404-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45947.46304398148</v>
+        <v>45833</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5394,7 +5399,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5431,14 +5436,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36421-2022</t>
+          <t>A 11454-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44804</v>
+        <v>44993</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5451,7 +5456,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5488,14 +5493,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 55762-2025</t>
+          <t>A 12721-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45972.60525462963</v>
+        <v>45000.78096064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5508,7 +5513,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5545,14 +5550,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 35392-2025</t>
+          <t>A 59949-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45854</v>
+        <v>44494.82990740741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5565,7 +5570,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5602,14 +5607,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35397-2025</t>
+          <t>A 60213-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45854</v>
+        <v>45642</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5622,7 +5627,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5659,14 +5664,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27965-2025</t>
+          <t>A 9006-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45817</v>
+        <v>45357</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5679,7 +5684,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>12.7</v>
+        <v>1.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5716,14 +5721,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 57181-2024</t>
+          <t>A 33255-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45629.44629629629</v>
+        <v>45127.5517824074</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5736,7 +5741,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5773,14 +5778,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 11454-2023</t>
+          <t>A 20426-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44993</v>
+        <v>45056</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5793,7 +5798,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5830,14 +5835,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60055-2025</t>
+          <t>A 17517-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45993.64469907407</v>
+        <v>45415.58579861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5849,13 +5854,8 @@
           <t>BROMÖLLA</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5892,14 +5892,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 60698-2025</t>
+          <t>A 12685-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45996.60071759259</v>
+        <v>45384</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -5949,14 +5949,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 60696-2025</t>
+          <t>A 48738-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45996.59925925926</v>
+        <v>45208.81071759259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6006,14 +6006,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60961-2025</t>
+          <t>A 42909-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45999</v>
+        <v>45566</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6063,14 +6063,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36086-2025</t>
+          <t>A 28870-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45866</v>
+        <v>45104.46216435185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6120,14 +6120,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8366-2026</t>
+          <t>A 814-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46064</v>
+        <v>45300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 8362-2026</t>
+          <t>A 32272-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46064</v>
+        <v>45512.35908564815</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6234,14 +6234,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9509-2026</t>
+          <t>A 55901-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46071.58337962963</v>
+        <v>45622</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6291,14 +6291,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9508-2026</t>
+          <t>A 30407-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46071.58304398148</v>
+        <v>45491.60534722222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6348,14 +6348,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31404-2025</t>
+          <t>A 24688-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45833</v>
+        <v>45798</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
